--- a/config/MigrationConfig.xlsx
+++ b/config/MigrationConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabharti\Documents\UiPath\SPMTAutomation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6493DBFC-A7C1-4673-A337-D78807062277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FD7891-2DE6-466B-8A16-E6CF60EA974E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>UserName</t>
   </si>
@@ -36,19 +36,16 @@
     <t>FilePath</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>C:\Users\sabharti\Desktop\Test</t>
-  </si>
-  <si>
-    <t>C:\Users\sabharti\Desktop\NotExist</t>
-  </si>
-  <si>
     <t>admin@a830edad9050849397E19110420.onmicrosoft.com</t>
   </si>
   <si>
     <t>Haba3326</t>
+  </si>
+  <si>
+    <t>C:\Users\sabharti\Documents\UiPath\SPMTAutomation\config\Valid</t>
+  </si>
+  <si>
+    <t>C:\Users\sabharti\Documents\UiPath\SPMTAutomation\config\InValid</t>
   </si>
 </sst>
 </file>
@@ -375,21 +372,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="48.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,30 +396,27 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
